--- a/Preguntas.xlsx
+++ b/Preguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ExamenPOO2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB3B35-85C9-4E5A-AD15-C253791E3D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD8E19-52E2-4531-8ACF-284E41D07F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{5710C513-2D93-4E79-BE14-3A006BC61634}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{5710C513-2D93-4E79-BE14-3A006BC61634}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>Tipo (1: Opción Múltiple, 2: Abierta)</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>Tierra,Venus,Marte,Júpiter</t>
   </si>
   <si>
-    <t>¿Hoy es miércoles?</t>
+    <t>¿Qué significa POO?</t>
+  </si>
+  <si>
+    <t>programación, orientada, objetos</t>
   </si>
 </sst>
 </file>
@@ -440,14 +440,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
